--- a/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
+++ b/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="323">
   <si>
     <t>Component</t>
   </si>
@@ -390,588 +390,609 @@
     <t>lymph node</t>
   </si>
   <si>
+    <t>Cerebellar Hemisphere</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>Biocrates Q500</t>
+  </si>
+  <si>
+    <t>mammary gland</t>
+  </si>
+  <si>
     <t>cerebellum</t>
   </si>
   <si>
-    <t>fibroblast</t>
-  </si>
-  <si>
-    <t>Biocrates Q500</t>
-  </si>
-  <si>
-    <t>mammary gland</t>
+    <t>GABAergic neurons</t>
+  </si>
+  <si>
+    <t>bisulfiteSeq</t>
+  </si>
+  <si>
+    <t>nerves</t>
   </si>
   <si>
     <t>cerebral cortex</t>
   </si>
   <si>
-    <t>GABAergic neurons</t>
-  </si>
-  <si>
-    <t>bisulfiteSeq</t>
-  </si>
-  <si>
-    <t>nerves</t>
+    <t>glia</t>
+  </si>
+  <si>
+    <t>Blood Chemistry Measurement</t>
+  </si>
+  <si>
+    <t>nose</t>
   </si>
   <si>
     <t>cortical plate</t>
   </si>
   <si>
-    <t>glia</t>
-  </si>
-  <si>
-    <t>Blood Chemistry Measurement</t>
-  </si>
-  <si>
-    <t>nose</t>
+    <t>GLUtamatergic neurons</t>
+  </si>
+  <si>
+    <t>brightfieldMicroscopy</t>
+  </si>
+  <si>
+    <t>ovary</t>
   </si>
   <si>
     <t>dorsal anterior cingulate cortex</t>
   </si>
   <si>
-    <t>GLUtamatergic neurons</t>
-  </si>
-  <si>
-    <t>brightfieldMicroscopy</t>
-  </si>
-  <si>
-    <t>ovary</t>
+    <t>immune cell</t>
+  </si>
+  <si>
+    <t>cellViabilityAssay</t>
+  </si>
+  <si>
+    <t>pancreas</t>
   </si>
   <si>
     <t>dorsal pallium</t>
   </si>
   <si>
-    <t>immune cell</t>
-  </si>
-  <si>
-    <t>cellViabilityAssay</t>
-  </si>
-  <si>
-    <t>pancreas</t>
+    <t>iPSC</t>
+  </si>
+  <si>
+    <t>ChIPSeq</t>
+  </si>
+  <si>
+    <t>prostate</t>
   </si>
   <si>
     <t>Dorsal Root Ganglion</t>
   </si>
   <si>
-    <t>iPSC</t>
-  </si>
-  <si>
-    <t>ChIPSeq</t>
-  </si>
-  <si>
-    <t>prostate</t>
+    <t>iPSC-derived astrocytes</t>
+  </si>
+  <si>
+    <t>CITESeq</t>
+  </si>
+  <si>
+    <t>skin</t>
   </si>
   <si>
     <t>dorsolateral prefrontal cortex</t>
   </si>
   <si>
-    <t>iPSC-derived astrocytes</t>
-  </si>
-  <si>
-    <t>CITESeq</t>
-  </si>
-  <si>
-    <t>skin</t>
+    <t>iPSC-derived glia</t>
+  </si>
+  <si>
+    <t>contextual conditioning behavior</t>
+  </si>
+  <si>
+    <t>spleen</t>
   </si>
   <si>
     <t>dorsomedial prefrontal cortex</t>
   </si>
   <si>
-    <t>iPSC-derived glia</t>
-  </si>
-  <si>
-    <t>contextual conditioning behavior</t>
-  </si>
-  <si>
-    <t>spleen</t>
+    <t>iPSC-derived neuron</t>
+  </si>
+  <si>
+    <t>CUT&amp;Tag</t>
   </si>
   <si>
     <t>embryonic tissue</t>
   </si>
   <si>
-    <t>iPSC-derived neuron</t>
-  </si>
-  <si>
-    <t>CUT&amp;Tag</t>
+    <t>iPSC-derived neuronal progenitor cell</t>
+  </si>
+  <si>
+    <t>DIA</t>
   </si>
   <si>
     <t>entorhinal cortex</t>
   </si>
   <si>
-    <t>iPSC-derived neuronal progenitor cell</t>
-  </si>
-  <si>
-    <t>DIA</t>
+    <t>iPSC-derived telencephalic organoids</t>
+  </si>
+  <si>
+    <t>DNA optical mapping</t>
   </si>
   <si>
     <t>fecal material</t>
   </si>
   <si>
-    <t>iPSC-derived telencephalic organoids</t>
-  </si>
-  <si>
-    <t>DNA optical mapping</t>
+    <t>lymphoblast</t>
+  </si>
+  <si>
+    <t>electrochemiluminescence</t>
   </si>
   <si>
     <t>forebrain</t>
   </si>
   <si>
-    <t>lymphoblast</t>
-  </si>
-  <si>
-    <t>electrochemiluminescence</t>
+    <t>lymphoblastoid cell line</t>
+  </si>
+  <si>
+    <t>elevated plus maze test</t>
   </si>
   <si>
     <t>frontal cortex</t>
   </si>
   <si>
-    <t>lymphoblastoid cell line</t>
-  </si>
-  <si>
-    <t>elevated plus maze test</t>
+    <t>macrophages</t>
+  </si>
+  <si>
+    <t>elevated T maze apparatus method</t>
   </si>
   <si>
     <t>frontal lobe</t>
   </si>
   <si>
-    <t>macrophages</t>
-  </si>
-  <si>
-    <t>elevated T maze apparatus method</t>
+    <t>meningioma</t>
+  </si>
+  <si>
+    <t>ELISA</t>
   </si>
   <si>
     <t>frontal pole</t>
   </si>
   <si>
-    <t>meningioma</t>
-  </si>
-  <si>
-    <t>ELISA</t>
+    <t>microglia</t>
+  </si>
+  <si>
+    <t>errBisulfiteSeq</t>
   </si>
   <si>
     <t>fusiform gyrus</t>
   </si>
   <si>
-    <t>microglia</t>
-  </si>
-  <si>
-    <t>errBisulfiteSeq</t>
+    <t>monocyte-derived microglia</t>
+  </si>
+  <si>
+    <t>exomeSeq</t>
   </si>
   <si>
     <t>head of caudate nucleus</t>
   </si>
   <si>
-    <t>monocyte-derived microglia</t>
-  </si>
-  <si>
-    <t>exomeSeq</t>
+    <t>monocytes</t>
+  </si>
+  <si>
+    <t>FIA-MSMS</t>
   </si>
   <si>
     <t>hippocampus</t>
   </si>
   <si>
-    <t>monocytes</t>
-  </si>
-  <si>
-    <t>FIA-MSMS</t>
+    <t>NCX NES</t>
+  </si>
+  <si>
+    <t>FitBark</t>
   </si>
   <si>
     <t>inferior frontal gyrus</t>
   </si>
   <si>
-    <t>NCX NES</t>
-  </si>
-  <si>
-    <t>FitBark</t>
+    <t>NeuN+</t>
+  </si>
+  <si>
+    <t>frailty assessment</t>
+  </si>
+  <si>
+    <t>inferior Parietal Gyrus</t>
+  </si>
+  <si>
+    <t>NeuN-</t>
+  </si>
+  <si>
+    <t>Genotyping</t>
   </si>
   <si>
     <t>inferior temporal cortex</t>
   </si>
   <si>
-    <t>NeuN+</t>
-  </si>
-  <si>
-    <t>frailty assessment</t>
+    <t>neural progenitor cell</t>
+  </si>
+  <si>
+    <t>HI-C</t>
   </si>
   <si>
     <t>inferior temporal gyrus</t>
   </si>
   <si>
-    <t>NeuN-</t>
-  </si>
-  <si>
-    <t>Genotyping</t>
+    <t>neuron</t>
+  </si>
+  <si>
+    <t>HiChIPseq</t>
   </si>
   <si>
     <t>inferolateral temporal cortex</t>
   </si>
   <si>
-    <t>neural progenitor cell</t>
-  </si>
-  <si>
-    <t>HI-C</t>
+    <t>oligodendrocyte</t>
+  </si>
+  <si>
+    <t>high content screen</t>
   </si>
   <si>
     <t>insula</t>
   </si>
   <si>
-    <t>neuron</t>
-  </si>
-  <si>
-    <t>HiChIPseq</t>
+    <t>peripheral blood mononuclear cell</t>
+  </si>
+  <si>
+    <t>HPLC</t>
   </si>
   <si>
     <t>insular cortex</t>
   </si>
   <si>
-    <t>oligodendrocyte</t>
-  </si>
-  <si>
-    <t>high content screen</t>
+    <t>polygonal</t>
+  </si>
+  <si>
+    <t>HPLC-MSMS</t>
   </si>
   <si>
     <t>lateral entorhinal cortex</t>
   </si>
   <si>
-    <t>peripheral blood mononuclear cell</t>
-  </si>
-  <si>
-    <t>HPLC</t>
+    <t>round</t>
+  </si>
+  <si>
+    <t>Illumina EPIC Array</t>
   </si>
   <si>
     <t>left cerebral hemisphere</t>
   </si>
   <si>
-    <t>polygonal</t>
-  </si>
-  <si>
-    <t>HPLC-MSMS</t>
-  </si>
-  <si>
-    <t>round</t>
+    <t>schwann</t>
   </si>
   <si>
     <t>Immunocytochemistry</t>
   </si>
   <si>
+    <t>Schwann cell precursor</t>
+  </si>
+  <si>
+    <t>immunofluorescence</t>
+  </si>
+  <si>
     <t>mammillary body</t>
   </si>
   <si>
-    <t>schwann</t>
-  </si>
-  <si>
-    <t>immunofluorescence</t>
+    <t>schwannoma</t>
+  </si>
+  <si>
+    <t>immunohistochemistry</t>
   </si>
   <si>
     <t>medial dorsal nucleus of thalamus</t>
   </si>
   <si>
-    <t>Schwann cell precusor</t>
-  </si>
-  <si>
-    <t>immunohistochemistry</t>
+    <t>SH-SY5Y</t>
+  </si>
+  <si>
+    <t>in vivo bioluminescence</t>
   </si>
   <si>
     <t>medial entorhinal cortex</t>
   </si>
   <si>
-    <t>schwannoma</t>
-  </si>
-  <si>
-    <t>in vivo bioluminescence</t>
+    <t>ISOSeq</t>
   </si>
   <si>
     <t>medial frontal cortex</t>
   </si>
   <si>
-    <t>SH-SY5Y</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
+    <t>jumpingLibrary</t>
   </si>
   <si>
     <t>medial ganglionic eminence</t>
   </si>
   <si>
-    <t>jumpingLibrary</t>
+    <t>kinesthetic behavior</t>
   </si>
   <si>
     <t>medial orbital frontal cortex</t>
   </si>
   <si>
-    <t>kinesthetic behavior</t>
+    <t>label free mass spectrometry</t>
   </si>
   <si>
     <t>medial prefrontal cortex</t>
   </si>
   <si>
-    <t>label free mass spectrometry</t>
+    <t>Laser Speckle Imaging</t>
   </si>
   <si>
     <t>meninges</t>
   </si>
   <si>
-    <t>Laser Speckle Imaging</t>
+    <t>LC-MS</t>
   </si>
   <si>
     <t>midbrain</t>
   </si>
   <si>
-    <t>LC-MS</t>
+    <t>LC-MSMS</t>
   </si>
   <si>
     <t>middle frontal gyrus</t>
   </si>
   <si>
-    <t>LC-MSMS</t>
+    <t>LC-SRM</t>
   </si>
   <si>
     <t>middle temporal gyrus</t>
   </si>
   <si>
-    <t>LC-SRM</t>
+    <t>Leiden Oxylipins</t>
   </si>
   <si>
     <t>nerve tissue</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
+    <t>lentiMPRA</t>
   </si>
   <si>
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
+    <t>LFP</t>
   </si>
   <si>
     <t>nucleus accumbens</t>
   </si>
   <si>
-    <t>LFP</t>
+    <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
     <t>occipital lobe</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>occipital pole</t>
+  </si>
+  <si>
+    <t>locomotor activation behavior</t>
   </si>
   <si>
     <t>occipital visual cortex</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
+    <t>long-read rnaSeq</t>
   </si>
   <si>
     <t>olfactory neuroepithelium</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
+    <t>LTP</t>
   </si>
   <si>
     <t>orbitofrontal cortex</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
+    <t>m6A-rnaSeq</t>
   </si>
   <si>
     <t>parahippocampal gyrus</t>
   </si>
   <si>
-    <t>LTP</t>
+    <t>MDMS-SL</t>
   </si>
   <si>
     <t>parietal cortex</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
+    <t>memory behavior</t>
   </si>
   <si>
     <t>parietal lobe</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
+    <t>Metabolon</t>
   </si>
   <si>
     <t>plasma</t>
   </si>
   <si>
-    <t>memory behavior</t>
+    <t>methylationArray</t>
   </si>
   <si>
     <t>posterior cingulate cortex</t>
   </si>
   <si>
-    <t>Metabolon</t>
+    <t>MIB/MS</t>
   </si>
   <si>
     <t>posterior inferior parietal cortex</t>
   </si>
   <si>
-    <t>methylationArray</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>posterior superior temporal cortex</t>
   </si>
   <si>
-    <t>MIB/MS</t>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>posteroinferior parietal cortex</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaSeq</t>
   </si>
   <si>
     <t>precentral gyrus</t>
   </si>
   <si>
-    <t>mirnaArray</t>
+    <t>MRI</t>
   </si>
   <si>
     <t>prefrontal cortex</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
+    <t>mRNAcounts</t>
   </si>
   <si>
     <t>primary auditory cortex</t>
   </si>
   <si>
-    <t>MRI</t>
+    <t>mRNAseq</t>
   </si>
   <si>
     <t>primary motor cortex</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
+    <t>MudPIT</t>
   </si>
   <si>
     <t>primary somatosensory cortex</t>
   </si>
   <si>
-    <t>MudPIT</t>
+    <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
     <t>primary tumor</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
+    <t>Nightingale NMR</t>
   </si>
   <si>
     <t>primary visual cortex</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
+    <t>NOMe-Seq</t>
   </si>
   <si>
     <t>putamen</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
+    <t>novelty response behavior</t>
   </si>
   <si>
     <t>right cerebral hemisphere</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
+    <t>open field test</t>
   </si>
   <si>
     <t>serum</t>
   </si>
   <si>
-    <t>open field test</t>
+    <t>oxBS-Seq</t>
   </si>
   <si>
     <t>splenocyte</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
+    <t>pharmacodynamics</t>
   </si>
   <si>
     <t>striatum</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
+    <t>pharmacokinetics</t>
   </si>
   <si>
     <t>subgenual anterior cingulate cortex</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
+    <t>photograph</t>
   </si>
   <si>
     <t>subgenual cingulate cortex</t>
   </si>
   <si>
-    <t>photograph</t>
+    <t>polymeraseChainReaction</t>
   </si>
   <si>
     <t>superior parietal lobe</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
+    <t>Positron Emission Tomography</t>
   </si>
   <si>
     <t>superior temporal gyrus</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
+    <t>proximity extension assay</t>
   </si>
   <si>
     <t>temporal cortex</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
+    <t>questionnaire</t>
   </si>
   <si>
     <t>temporal lobe</t>
   </si>
   <si>
-    <t>questionnaire</t>
+    <t>Rader Lipidomics</t>
   </si>
   <si>
     <t>temporal pole</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
+    <t>Real Time PCR</t>
   </si>
   <si>
     <t>thalamus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>Transentorhinal Cortex</t>
+  </si>
+  <si>
+    <t>rnaArray</t>
   </si>
   <si>
     <t>unspecified</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
+    <t>rnaSeq</t>
   </si>
   <si>
     <t>ventricular zone</t>
   </si>
   <si>
-    <t>rnaArray</t>
+    <t>rotarod performance test</t>
   </si>
   <si>
     <t>ventrolateral prefrontal cortex</t>
   </si>
   <si>
-    <t>rnaSeq</t>
+    <t>RPPA</t>
   </si>
   <si>
     <t>VZ/SVZ</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
+    <t>RRBS</t>
   </si>
   <si>
     <t>whole brain</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
     <t>sandwich ELISA</t>
   </si>
   <si>
@@ -1015,6 +1036,9 @@
   </si>
   <si>
     <t>TMT quantitation</t>
+  </si>
+  <si>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
@@ -28437,14 +28461,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2:$G$3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
+      <formula1>Sheet2!$P$2:$P$123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
+      <formula1>Sheet2!$F$2:$F$94</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
-      <formula1>Sheet2!$P$2:$P$119</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
-      <formula1>Sheet2!$F$2:$F$90</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$10</formula1>
@@ -29095,29 +29119,29 @@
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="7" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>184</v>
@@ -29525,148 +29549,180 @@
       </c>
     </row>
     <row r="91">
+      <c r="F91" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="P91" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92">
+      <c r="F92" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="P92" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93">
+      <c r="F93" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="P93" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94">
+      <c r="F94" s="7" t="s">
+        <v>292</v>
+      </c>
       <c r="P94" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95">
       <c r="P95" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96">
       <c r="P96" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97">
       <c r="P97" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98">
       <c r="P98" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99">
       <c r="P99" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100">
       <c r="P100" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101">
       <c r="P101" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="P102" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103">
       <c r="P103" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104">
       <c r="P104" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105">
       <c r="P105" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106">
       <c r="P106" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107">
       <c r="P107" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108">
       <c r="P108" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109">
       <c r="P109" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110">
       <c r="P110" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111">
       <c r="P111" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112">
       <c r="P112" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113">
       <c r="P113" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114">
       <c r="P114" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115">
       <c r="P115" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116">
       <c r="P116" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117">
       <c r="P117" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118">
       <c r="P118" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119">
       <c r="P119" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="P120" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="P121" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="P122" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="P123" s="7" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
+++ b/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
@@ -247,7 +247,7 @@
     <t>Abeta42 oligomer</t>
   </si>
   <si>
-    <t>not collected</t>
+    <t>Not collected</t>
   </si>
   <si>
     <t>brain</t>

--- a/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
+++ b/current-excel-manifests/BiospecimenMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -1230,6 +1230,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
